--- a/taxiQuestion/pythonProject/data/区域题.xlsx
+++ b/taxiQuestion/pythonProject/data/区域题.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\pythonStudy\taxiQuestion\pythonProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDE3CAB-FD02-49CD-BDAB-E0F0EDA748DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB692C-4381-4EE1-B94C-A4757CC82C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2460" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
+    <workbookView xWindow="1950" yWindow="2460" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$466</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1427,6 +1418,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>游泳》中 “才饮长沙水，又食武昌鱼”中的武昌鱼又称（  ）。
@@ -1536,9 +1528,6 @@
  A、10月25日   B、9月25日   C、8月25日   D、7月25日</t>
   </si>
   <si>
-    <t>精神文明</t>
-  </si>
-  <si>
     <t>社会主义核心价值观“富强、民主、文明、和谐、自由、平等、公正、法治、爱国、敬业、诚信、友善”。</t>
   </si>
   <si>
@@ -1707,12 +1696,16 @@
 C、无需停在平坦的地方，在启动前检查
 D、无需停在平坦的地方，在怠速状态下检查</t>
   </si>
+  <si>
+    <t>精神文明(判断)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1740,6 +1733,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1780,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1814,10 +1820,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,14 +2121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A445" sqref="A444:IV445"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -2131,18 +2140,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="22.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
@@ -2695,11 +2704,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="22.5">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="18.75">
       <c r="A54" s="5" t="s">
@@ -3362,11 +3371,11 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="18.75">
       <c r="A115" s="5" t="s">
@@ -4249,11 +4258,11 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="22.5">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" spans="1:3" ht="18.75">
       <c r="A196" s="5" t="s">
@@ -4762,11 +4771,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" ht="22.5">
-      <c r="A242" s="12" t="s">
+      <c r="A242" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243" spans="1:3" ht="18.75">
       <c r="A243" s="5" t="s">
@@ -5264,11 +5273,11 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="22.5">
-      <c r="A288" s="12" t="s">
+      <c r="A288" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
     </row>
     <row r="289" spans="1:3" ht="18.75">
       <c r="A289" s="5" t="s">
@@ -5689,11 +5698,11 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="22.5">
-      <c r="A327" s="12" t="s">
+      <c r="A327" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B327" s="12"/>
-      <c r="C327" s="12"/>
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
     </row>
     <row r="328" spans="1:3" ht="18.75">
       <c r="A328" s="5" t="s">
@@ -6136,11 +6145,11 @@
       </c>
     </row>
     <row r="368" spans="1:3" ht="22.5">
-      <c r="A368" s="12" t="s">
+      <c r="A368" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B368" s="12"/>
-      <c r="C368" s="12"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
     </row>
     <row r="369" spans="1:3" ht="18.75">
       <c r="A369" s="5" t="s">
@@ -6362,7 +6371,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="43.5">
+    <row r="389" spans="1:3" ht="44.25">
       <c r="A389" s="3">
         <v>372</v>
       </c>
@@ -6649,11 +6658,11 @@
       </c>
     </row>
     <row r="415" spans="1:3" ht="22.5">
-      <c r="A415" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415" s="12"/>
-      <c r="C415" s="12"/>
+      <c r="A415" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B415" s="11"/>
+      <c r="C415" s="11"/>
     </row>
     <row r="416" spans="1:3" ht="18.75">
       <c r="A416" s="5" t="s">
@@ -6674,7 +6683,7 @@
         <v>5</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6685,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6696,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6707,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="28.5">
@@ -6718,15 +6727,15 @@
         <v>5</v>
       </c>
       <c r="C421" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="22.5">
+      <c r="A422" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="22.5">
-      <c r="A422" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B422" s="12"/>
-      <c r="C422" s="12"/>
+      <c r="B422" s="11"/>
+      <c r="C422" s="11"/>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="9" t="s">
@@ -6747,7 +6756,7 @@
         <v>5</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="28.5">
@@ -6758,7 +6767,7 @@
         <v>5</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="28.5">
@@ -6769,7 +6778,7 @@
         <v>7</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6780,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="28.5">
@@ -6791,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6802,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6813,7 +6822,7 @@
         <v>5</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6824,7 +6833,7 @@
         <v>7</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="28.5">
@@ -6835,7 +6844,7 @@
         <v>5</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="28.5">
@@ -6846,7 +6855,7 @@
         <v>7</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6857,7 +6866,7 @@
         <v>5</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="28.5">
@@ -6868,7 +6877,7 @@
         <v>5</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6879,7 +6888,7 @@
         <v>5</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6890,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6901,7 +6910,7 @@
         <v>5</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="42.75">
@@ -6912,7 +6921,7 @@
         <v>5</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="28.5">
@@ -6923,7 +6932,7 @@
         <v>7</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6934,7 +6943,7 @@
         <v>5</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6945,7 +6954,7 @@
         <v>5</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6956,7 +6965,7 @@
         <v>5</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="28.5">
@@ -6967,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="28.5">
@@ -6978,7 +6987,7 @@
         <v>5</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="28.5">
@@ -6989,7 +6998,7 @@
         <v>7</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="28.5">
@@ -7000,7 +7009,7 @@
         <v>7</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7011,7 +7020,7 @@
         <v>5</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="28.5">
@@ -7022,15 +7031,15 @@
         <v>7</v>
       </c>
       <c r="C449" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="22.5">
+      <c r="A450" s="11" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="22.5">
-      <c r="A450" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B450" s="12"/>
-      <c r="C450" s="12"/>
+      <c r="B450" s="11"/>
+      <c r="C450" s="11"/>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="9" t="s">
@@ -7051,7 +7060,7 @@
         <v>59</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="42.75">
@@ -7062,7 +7071,7 @@
         <v>61</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="28.5">
@@ -7073,7 +7082,7 @@
         <v>57</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="42.75">
@@ -7084,7 +7093,7 @@
         <v>59</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="42.75">
@@ -7095,7 +7104,7 @@
         <v>57</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="57">
@@ -7106,7 +7115,7 @@
         <v>61</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="42.75">
@@ -7117,7 +7126,7 @@
         <v>67</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="28.5">
@@ -7128,7 +7137,7 @@
         <v>59</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="71.25">
@@ -7139,7 +7148,7 @@
         <v>57</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="28.5">
@@ -7150,7 +7159,7 @@
         <v>61</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="57">
@@ -7161,7 +7170,7 @@
         <v>67</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="42.75">
@@ -7172,7 +7181,7 @@
         <v>59</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="42.75">
@@ -7183,7 +7192,7 @@
         <v>61</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="28.5">
@@ -7194,7 +7203,7 @@
         <v>67</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="71.25">
@@ -7205,17 +7214,12 @@
         <v>59</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="A415:C415"/>
-    <mergeCell ref="A422:C422"/>
     <mergeCell ref="A450:C450"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -7223,6 +7227,11 @@
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A195:C195"/>
     <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="A415:C415"/>
+    <mergeCell ref="A422:C422"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -7232,7 +7241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7251,7 +7260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7264,7 +7273,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>